--- a/biology/Botanique/Anis_vert/Anis_vert.xlsx
+++ b/biology/Botanique/Anis_vert/Anis_vert.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pimpinella anisum
 L’anis (Pimpinella anisum) est une espèce de plantes herbacées  de  la famille des Apiacées, cultivée comme plante condimentaire pour ses feuilles et ses graines aromatiques. La plante est parfois appelée anis vert.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>C’est une plante herbacée annuelle ou bisannuelle, mesurant de 50 à 80 cm de haut, à tiges dressées creuses.
 Les feuilles longuement pétiolées sont composées de trois folioles dentelées.
@@ -546,9 +560,11 @@
           <t>Origine et distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est originaire de l'Est du Bassin méditerranéen[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est originaire de l'Est du Bassin méditerranéen.
 Elle s’est largement répandue par la culture dans les régions tempérées.
 L'anis vert fait partie des plantes dont la culture est recommandée dans les domaines royaux par Charlemagne dans le capitulaire De Villis (fin du VIIIe ou début du IXe siècle).
 </t>
@@ -579,9 +595,11 @@
           <t>Composition chimique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les graines d'anis contiennent différents composés aromatiques, dont les plus importantes sont le trans-anéthol et l'estragol, ainsi que, en moindre quantité : méthylchavicole, anisaldéhyde, coumarine, scopolétine, ombelliférone, estrol[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les graines d'anis contiennent différents composés aromatiques, dont les plus importantes sont le trans-anéthol et l'estragol, ainsi que, en moindre quantité : méthylchavicole, anisaldéhyde, coumarine, scopolétine, ombelliférone, estrol.
 </t>
         </is>
       </c>
@@ -610,7 +628,9 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Préfère les  sols légers et sains, et les expositions chaudes et ensoleillées.
 Semis au printemps, en avril-mai. Éclaircir après la levée.
@@ -643,7 +663,9 @@
           <t>Étymologie et dénominations</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Noms communs : anis, anis cultivé, anis musqué, anis officinal, anis sucré, anis vert, boucage, pimpinelle, pimpinelle anisée, pimprenelle d’Égypte. de : Anis, en : anise, sweet cumin, es : anís, it : anise.
 </t>
@@ -676,14 +698,88 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t xml:space="preserve">Usage culinaire
-Les feuilles fraîches finement hachées servent à aromatiser certains plats : crudités, salades, potages, etc.
+          <t>Usage culinaire</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Les feuilles fraîches finement hachées servent à aromatiser certains plats : crudités, salades, potages, etc.
 Les graines sont utilisées en pâtisserie et en confiserie (Anis de Flavigny, pain d'épices, dragées, etc.).
-Elles entrent également dans la composition de liqueurs et boissons anisées (anisette, rakı, ouzo, pastis, arak, pontarlier, absinthe, etc.). Ces boissons doivent leur goût aux terpènes contenus dans la plante.
-Usage thérapeutique
-En infusion, les graines donnent une tisane aux propriétés stimulantes et carminatives[réf. nécessaire], conseillée[Par qui ?] pour les ballonnements[réf. nécessaire], les digestions difficiles[3], l’aérocolie[réf. nécessaire] et les renvois, antispasmodique[réf. nécessaire], idéale pour les coliques[réf. nécessaire] et reflux des bébés[réf. nécessaire].
-Usage compagnonnage
-Éloigne les pucerons, les vers ou chenilles[réf. souhaitée].
+Elles entrent également dans la composition de liqueurs et boissons anisées (anisette, rakı, ouzo, pastis, arak, pontarlier, absinthe, etc.). Ces boissons doivent leur goût aux terpènes contenus dans la plante.</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Anis_vert</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Anis_vert</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Utilisation</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Usage thérapeutique</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En infusion, les graines donnent une tisane aux propriétés stimulantes et carminatives[réf. nécessaire], conseillée[Par qui ?] pour les ballonnements[réf. nécessaire], les digestions difficiles, l’aérocolie[réf. nécessaire] et les renvois, antispasmodique[réf. nécessaire], idéale pour les coliques[réf. nécessaire] et reflux des bébés[réf. nécessaire].
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Anis_vert</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Anis_vert</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Utilisation</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Usage compagnonnage</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Éloigne les pucerons, les vers ou chenilles[réf. souhaitée].
 </t>
         </is>
       </c>
